--- a/download/Super13Cr 圆钢.xlsx
+++ b/download/Super13Cr 圆钢.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>编号</t>
   </si>
@@ -76,7 +76,7 @@
     <t>M002757</t>
   </si>
   <si>
-    <t>203*28</t>
+    <t>220</t>
   </si>
   <si>
     <t>调质110KSI</t>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>A区-228</t>
+  </si>
+  <si>
+    <t>M002773</t>
+  </si>
+  <si>
+    <t>抚顺特钢</t>
+  </si>
+  <si>
+    <t>6780</t>
+  </si>
+  <si>
+    <t>2037.66</t>
+  </si>
+  <si>
+    <t>CG20231126-04</t>
   </si>
 </sst>
 </file>
@@ -539,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -971,6 +986,53 @@
         <v>36</v>
       </c>
     </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2">
+        <v>251</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/download/Super13Cr 圆钢.xlsx
+++ b/download/Super13Cr 圆钢.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
-  <si>
-    <t>编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
   <si>
     <t>商品id</t>
   </si>
@@ -73,142 +70,169 @@
     <t>3_104</t>
   </si>
   <si>
+    <t>M002759</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>调质110KSI</t>
+  </si>
+  <si>
+    <t>XYGN4935-2022-01</t>
+  </si>
+  <si>
+    <t>大冶特殊钢</t>
+  </si>
+  <si>
+    <t>2055452A</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>6190</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>A区-224</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>M002760</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>6070</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4040</t>
+  </si>
+  <si>
+    <t>488.17</t>
+  </si>
+  <si>
+    <t>A区-225</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>M002761</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6960</t>
+  </si>
+  <si>
+    <t>A区-226</t>
+  </si>
+  <si>
+    <t>M002762</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>733.46</t>
+  </si>
+  <si>
+    <t>A区-227</t>
+  </si>
+  <si>
+    <t>M002763</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6170</t>
+  </si>
+  <si>
+    <t>745.55</t>
+  </si>
+  <si>
+    <t>A区-228</t>
+  </si>
+  <si>
+    <t>M002758</t>
+  </si>
+  <si>
+    <t>6140</t>
+  </si>
+  <si>
+    <t>741.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>M002773</t>
+  </si>
+  <si>
+    <t>抚顺特钢</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6780</t>
+  </si>
+  <si>
+    <t>2037.66</t>
+  </si>
+  <si>
+    <t>CG20231126-04</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>M002776</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>307.15</t>
+  </si>
+  <si>
+    <t>M002777</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>69.42</t>
+  </si>
+  <si>
     <t>M002757</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>调质110KSI</t>
-  </si>
-  <si>
-    <t>XYGN4935-2022-01</t>
-  </si>
-  <si>
-    <t>大冶特殊钢</t>
-  </si>
-  <si>
-    <t>2055452A</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>6050</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>A区-224</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>M002758</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>6140</t>
-  </si>
-  <si>
-    <t>741.92</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>M002759</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>6190</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>M002760</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>6070</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4040</t>
-  </si>
-  <si>
-    <t>488.17</t>
-  </si>
-  <si>
-    <t>A区-225</t>
-  </si>
-  <si>
-    <t>M002761</t>
-  </si>
-  <si>
-    <t>6960</t>
-  </si>
-  <si>
-    <t>A区-226</t>
-  </si>
-  <si>
-    <t>M002762</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>733.46</t>
-  </si>
-  <si>
-    <t>A区-227</t>
-  </si>
-  <si>
-    <t>M002763</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>6170</t>
-  </si>
-  <si>
-    <t>745.55</t>
-  </si>
-  <si>
-    <t>A区-228</t>
-  </si>
-  <si>
-    <t>M002773</t>
-  </si>
-  <si>
-    <t>抚顺特钢</t>
-  </si>
-  <si>
-    <t>6780</t>
-  </si>
-  <si>
-    <t>2037.66</t>
-  </si>
-  <si>
-    <t>CG20231126-04</t>
+    <t xml:space="preserve"> 123</t>
   </si>
 </sst>
 </file>
@@ -554,33 +578,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,15 +655,12 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2">
-        <v>226</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
@@ -671,9 +691,9 @@
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
       </c>
       <c r="O2" t="s">
@@ -682,19 +702,16 @@
       <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2">
-        <v>227</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -709,7 +726,7 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>33</v>
@@ -718,33 +735,30 @@
         <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2">
-        <v>228</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -759,22 +773,22 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -782,19 +796,16 @@
       <c r="P4" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2">
-        <v>229</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -809,42 +820,39 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
         <v>45</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>46</v>
       </c>
       <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2">
-        <v>230</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -859,42 +867,39 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="K6" t="s">
-        <v>40</v>
-      </c>
       <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2">
-        <v>231</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -909,128 +914,225 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>53</v>
-      </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2">
-        <v>232</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Q8" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2">
-        <v>251</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/download/Super13Cr 圆钢.xlsx
+++ b/download/Super13Cr 圆钢.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
   <si>
     <t>商品id</t>
   </si>
@@ -70,169 +70,241 @@
     <t>3_104</t>
   </si>
   <si>
+    <t>M004762</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>调质110KSI</t>
+  </si>
+  <si>
+    <t>XYGN4935-2022-01</t>
+  </si>
+  <si>
+    <t>大冶特殊钢</t>
+  </si>
+  <si>
+    <t>2055452A</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>6070</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>375.44</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>A区-225</t>
+  </si>
+  <si>
+    <t>天津</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>M004761</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>6190</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>A区-224</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>M002761</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6960</t>
+  </si>
+  <si>
+    <t>A区-226</t>
+  </si>
+  <si>
+    <t>M002763</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6170</t>
+  </si>
+  <si>
+    <t>745.55</t>
+  </si>
+  <si>
+    <t>A区-228</t>
+  </si>
+  <si>
+    <t>M002773</t>
+  </si>
+  <si>
+    <t>抚顺特钢</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6780</t>
+  </si>
+  <si>
+    <t>2037.66</t>
+  </si>
+  <si>
+    <t>CG20231126-04</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>M002757</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6050</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123</t>
+  </si>
+  <si>
+    <t>M002762</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3970</t>
+  </si>
+  <si>
+    <t>102.33002</t>
+  </si>
+  <si>
+    <t>A区-227</t>
+  </si>
+  <si>
+    <t>M002758</t>
+  </si>
+  <si>
+    <t>6140</t>
+  </si>
+  <si>
+    <t>2882</t>
+  </si>
+  <si>
+    <t>-237.23999</t>
+  </si>
+  <si>
+    <t>M004766</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>70.03</t>
+  </si>
+  <si>
+    <t>M004767</t>
+  </si>
+  <si>
+    <t>66.12</t>
+  </si>
+  <si>
+    <t>M004768</t>
+  </si>
+  <si>
+    <t>XTG-JY-036-2020</t>
+  </si>
+  <si>
+    <t>大冶特钢</t>
+  </si>
+  <si>
+    <t>w33223</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>704.76</t>
+  </si>
+  <si>
+    <t>CG202312-03</t>
+  </si>
+  <si>
+    <t>M002776</t>
+  </si>
+  <si>
+    <t>1022</t>
+  </si>
+  <si>
+    <t>307.15</t>
+  </si>
+  <si>
+    <t>M002777</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>69.42</t>
+  </si>
+  <si>
     <t>M002759</t>
   </si>
   <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>调质110KSI</t>
-  </si>
-  <si>
-    <t>XYGN4935-2022-01</t>
-  </si>
-  <si>
-    <t>大冶特殊钢</t>
-  </si>
-  <si>
-    <t>2055452A</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>6190</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>A区-224</t>
-  </si>
-  <si>
-    <t>天津</t>
-  </si>
-  <si>
-    <t>是</t>
+    <t>M004765</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>66.72</t>
   </si>
   <si>
     <t>M002760</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>6070</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>4040</t>
   </si>
   <si>
     <t>488.17</t>
-  </si>
-  <si>
-    <t>A区-225</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>M002761</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>6960</t>
-  </si>
-  <si>
-    <t>A区-226</t>
-  </si>
-  <si>
-    <t>M002762</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>733.46</t>
-  </si>
-  <si>
-    <t>A区-227</t>
-  </si>
-  <si>
-    <t>M002763</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>6170</t>
-  </si>
-  <si>
-    <t>745.55</t>
-  </si>
-  <si>
-    <t>A区-228</t>
-  </si>
-  <si>
-    <t>M002758</t>
-  </si>
-  <si>
-    <t>6140</t>
-  </si>
-  <si>
-    <t>741.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>M002773</t>
-  </si>
-  <si>
-    <t>抚顺特钢</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6780</t>
-  </si>
-  <si>
-    <t>2037.66</t>
-  </si>
-  <si>
-    <t>CG20231126-04</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>M002776</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>307.15</t>
-  </si>
-  <si>
-    <t>M002777</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>69.42</t>
-  </si>
-  <si>
-    <t>M002757</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>6050</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 123</t>
   </si>
 </sst>
 </file>
@@ -578,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +668,7 @@
     <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" customWidth="1"/>
@@ -691,16 +763,19 @@
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -708,7 +783,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -726,28 +801,31 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -755,10 +833,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -773,28 +851,28 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -802,10 +880,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -820,28 +898,28 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -849,46 +927,52 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -896,10 +980,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -914,31 +998,34 @@
         <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="P7" t="s">
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -946,52 +1033,46 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -999,43 +1080,49 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
-      </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1043,43 +1130,34 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1087,52 +1165,304 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" t="s">
-        <v>55</v>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/download/Super13Cr 圆钢.xlsx
+++ b/download/Super13Cr 圆钢.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
   <si>
     <t>商品id</t>
   </si>
@@ -52,9 +52,6 @@
     <t>理论重量</t>
   </si>
   <si>
-    <t>来源</t>
-  </si>
-  <si>
     <t>库位</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>375.44</t>
   </si>
   <si>
-    <t>234</t>
-  </si>
-  <si>
     <t>A区-225</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>2037.66</t>
   </si>
   <si>
-    <t>CG20231126-04</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>6050</t>
   </si>
   <si>
-    <t xml:space="preserve"> 123</t>
-  </si>
-  <si>
     <t>M002762</t>
   </si>
   <si>
@@ -262,9 +250,6 @@
     <t>704.76</t>
   </si>
   <si>
-    <t>CG202312-03</t>
-  </si>
-  <si>
     <t>M002776</t>
   </si>
   <si>
@@ -283,19 +268,52 @@
     <t>69.42</t>
   </si>
   <si>
+    <t>M004765</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>66.72</t>
+  </si>
+  <si>
+    <t>M004778</t>
+  </si>
+  <si>
+    <t>固溶时效H1100</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>370.87</t>
+  </si>
+  <si>
+    <t>2322</t>
+  </si>
+  <si>
+    <t>M004779</t>
+  </si>
+  <si>
+    <t>2333</t>
+  </si>
+  <si>
+    <t>701.16</t>
+  </si>
+  <si>
+    <t>ddddd</t>
+  </si>
+  <si>
+    <t>M004787</t>
+  </si>
+  <si>
     <t>M002759</t>
   </si>
   <si>
-    <t>M004765</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>66.72</t>
+    <t>M004788</t>
   </si>
   <si>
     <t>M002760</t>
@@ -650,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,14 +686,13 @@
     <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,745 +741,843 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" t="s">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="F15" t="s">
         <v>49</v>
       </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="M13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
         <v>87</v>
       </c>
-      <c r="J14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="M14" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
         <v>91</v>
       </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="P16" t="s">
         <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
         <v>94</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G19" t="s">
         <v>22</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
         <v>23</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J21" t="s">
         <v>25</v>
       </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="K21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
         <v>30</v>
-      </c>
-      <c r="O17" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
